--- a/manual/ProductionSiteInfraStructure.xlsx
+++ b/manual/ProductionSiteInfraStructure.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="6825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="b.Infra Architecture" sheetId="1" r:id="rId1"/>
+    <sheet name="c.server configuration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="401">
   <si>
     <t>organization x</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +84,1391 @@
   </si>
   <si>
     <t>As mentioned so far, webcoop is multi-tenant system based on cloud server.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "ibvwG3lYR0EZTsgB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            db,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "https://test.philippines-webcoop.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            path,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        backup(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for db in dbs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'talnorte',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'bamc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'taman',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dbs = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    path = "/mnt/share/backup"</t>
+  </si>
+  <si>
+    <t>if __name__=="__main__":</t>
+  </si>
+  <si>
+    <t>#########################################################################</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                os.remove(fn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                print "Deleting file", fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if fn&lt;filename:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for fn in files:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        files = glob.glob('%s/%s_*' % (path, db))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        filename='%s/%s_%s*.zip' % (path, db, dt_3months.strftime('%Y-%m-%d'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #print dt_3months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dt_3months = now - relativedelta(months=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        now = datetime.now()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #delete old files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        os.system(cmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print "CMD", cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            url,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            password,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            filename,</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cmd = "curl -o %s -d master_pwd=%s -d name=%s %s/web/database/backup" %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        print "Backup", filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    filename='%s/%s_%s.zip' % (path, db, time.strftime('%Y-%m-%d_%H%M%S'))</t>
+  </si>
+  <si>
+    <t>def backup(path, url, db, password):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    backup_file.close()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    backup_file.write(base64.b64decode(dump))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dump = sock.dump(password, db, 'zip')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    backup_file = open(filename, 'wb')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sock = xmlrpclib.ServerProxy(url+"/xmlrpc/db")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print "Backup", filename</t>
+  </si>
+  <si>
+    <t>def backupX(path, url, db, password):</t>
+  </si>
+  <si>
+    <t>from datetime import datetime</t>
+  </si>
+  <si>
+    <t>import glob</t>
+  </si>
+  <si>
+    <t>from dateutil.relativedelta import *</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>import xmlrpclib</t>
+  </si>
+  <si>
+    <t>import base64</t>
+  </si>
+  <si>
+    <t>#!/usr/bin/env python</t>
+  </si>
+  <si>
+    <t>(contents)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path : /home/centos/backup/backup.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(backup scirpt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0       13        *     *       1-7     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /home/centos/backup/backup.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/home/centos/backup.log</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#min    hour    dom     moy     dow      command</t>
+  </si>
+  <si>
+    <t>$ crontab -l</t>
+  </si>
+  <si>
+    <t>(cron job contents)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backup is executed by cron job set in file server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backup seript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Place for backup file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/mnt/share/backup/</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Informantion of shared folder in file server , and keep ip of accessible client.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/etc/exports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://es.agricom.co.jp/ohsaki_s/Web-MIS/blob/master/aws-install.md]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>declare -x OVPN_TLS_CIPHER=</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_SERVER_URL=udp://vpn.philippines-webcoop.com</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_SERVER=10.0.0.0/16</t>
+  </si>
+  <si>
+    <t>#declare -x OVPN_SERVER=192.168.255.0/24</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_ROUTES=([0]="192.168.254.0/24" [1]="172.16.0.0/12")</t>
+  </si>
+  <si>
+    <t>#declare -x OVPN_ROUTES=([0]="192.168.254.0/24")</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_PUSH=()</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_PROTO=udp</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_PORT=1194</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_NAT=0</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_MTU=</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_KEEPALIVE='10 60'</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_FRAGMENT=</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_EXTRA_SERVER_CONFIG=()</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_EXTRA_CLIENT_CONFIG=()</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_ENV=/etc/openvpn/ovpn_env.sh</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DNS_SERVERS=([0]="8.8.8.8" [1]="8.8.4.4")</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DNS=1</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DISABLE_PUSH_BLOCK_DNS=0</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DEVICEN=0</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DEVICE=tun</t>
+  </si>
+  <si>
+    <t>#declare -x OVPN_DEFROUTE=0</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_DEFROUTE=1</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_COMP_LZO=0</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_CN=vpn.philippines-webcoop.com</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_CLIENT_TO_CLIENT=</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_CIPHER=</t>
+  </si>
+  <si>
+    <t>declare -x OVPN_AUTH=</t>
+  </si>
+  <si>
+    <t>open_env.sh setting   ( /opt/openvpn/data/openenv.sh)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push "route 172.16.0.0 255.240.0.0"</t>
+  </si>
+  <si>
+    <t>push "dhcp-option DNS 8.8.4.4"</t>
+  </si>
+  <si>
+    <t>push "dhcp-option DNS 8.8.8.8"</t>
+  </si>
+  <si>
+    <t>push "dhcp-option DNS 172.31.0.2"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push "block-outside-dns"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### Push Configurations Below</t>
+  </si>
+  <si>
+    <t>#route 172.16.0.0 255.240.0.0</t>
+  </si>
+  <si>
+    <t>#route 172.16.0.0 255.240.0.0 192.168.200.1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>route 192.168.254.0 255.255.255.0</t>
+  </si>
+  <si>
+    <t>### Route Configurations Below</t>
+  </si>
+  <si>
+    <t>group nogroup</t>
+  </si>
+  <si>
+    <t>user nobody</t>
+  </si>
+  <si>
+    <t>status /tmp/openvpn-status.log</t>
+  </si>
+  <si>
+    <t>dev tun0</t>
+  </si>
+  <si>
+    <t>port 1194</t>
+  </si>
+  <si>
+    <t># Rely on Docker to do port mapping, internally always 1194</t>
+  </si>
+  <si>
+    <t>proto udp</t>
+  </si>
+  <si>
+    <t>persist-tun</t>
+  </si>
+  <si>
+    <t>persist-key</t>
+  </si>
+  <si>
+    <t>keepalive 10 60</t>
+  </si>
+  <si>
+    <t>key-direction 0</t>
+  </si>
+  <si>
+    <t>tls-auth /etc/openvpn/pki/ta.key</t>
+  </si>
+  <si>
+    <t>dh /etc/openvpn/pki/dh.pem</t>
+  </si>
+  <si>
+    <t>cert /etc/openvpn/pki/issued/vpn.philippines-webcoop.com.crt</t>
+  </si>
+  <si>
+    <t>ca /etc/openvpn/pki/ca.crt</t>
+  </si>
+  <si>
+    <t>key /etc/openvpn/pki/private/vpn.philippines-webcoop.com.key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verb 3</t>
+  </si>
+  <si>
+    <t>server 192.168.255.0 255.255.255.0</t>
+  </si>
+  <si>
+    <t>tls-server</t>
+  </si>
+  <si>
+    <t>mode server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openvpn server setting   /opt/openvpn/data/openvpn.conf  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ip_range: 192.168.200.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - subnet: 192.168.200.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      config:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ipam:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static-network:</t>
+  </si>
+  <si>
+    <t>networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ipv4_address: 192.168.200.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      static-network:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - ./data/conf:/etc/openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    volumes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    restart: always</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - "1194:1194/udp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: openvpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: kylemanna/openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - NET_ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cap_add:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  openvpn:</t>
+  </si>
+  <si>
+    <t>services:</t>
+  </si>
+  <si>
+    <t>version: '2'</t>
+  </si>
+  <si>
+    <t>/opt/openvpn/docker-compose.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker setting     /opt/openvpn/docker-compose.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general server log , such as boot log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　|-log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sbin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              ┗pki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">file for setting of variable </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              ┣open_env.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">openvpn server configuration </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              ┣openvpn.conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              ┣crl.pem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              ┣ccd </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┗conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┣data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://devhub.io/repos/kylemanna-docker-openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docker configuration file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┣docker-compose.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kylemanna/docker-openvpn</t>
+  </si>
+  <si>
+    <t>　┗openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(refer to below url for detail setting of [open_env.sh] [openvpn.conf])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>folder keeped docker related files in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lib64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server folder info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Package Image of openvpn server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kylemanna/openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     openvpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*refer to [aws-install.md] or , [/opt/openvpn/docker-compose.yml] in app server </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*refer to [aws-install.md] source code in git server for knowing exact package and how to install it in detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle ware</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python-pip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epel-release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*refer to [aws-install.md] source code in git server for knowing exact package and how to install it in detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>basic library</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Installed software , package , library</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CentOS 7</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>t2.nano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instance type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Used AWS's service info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Server information]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(refer below url for details)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This server also uses docker ( which is in the repository [kylemanna-docker-openvpn].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN server is for management of vpn key and vpn access.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.31.25.176:/mnt/share/filestore /opt/webcoop/data/.local/share/ nfs rsize=8192,wsize=8192,timeo=14,intr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add the following line in /etc/fstab on the app server to connect to the NFS share. The IP address is the NFS server address.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://es.agricom.co.jp/ohsaki_s/Web-MIS/blob/master/aws-install.md</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refer to below url for details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File linkage setting , necessary setting for make linkage to file server's specific ( Before this setting , you need to set file server )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Other setting  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_pass http://odoo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   expires 864000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_buffering on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_cache_valid 200 60m;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> location ~* /web/static/ {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_pass http://odoochat;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> location /longpolling {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_redirect off;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_cookie_path / "/; secure";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   #more_set_headers 'Set-Cookie: ; HttpOnly; secure;';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_set_header X-EzTech-Host $host;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_set_header X-Real-IP $remote_addr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_set_header X-Forwarded-Proto $scheme;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_set_header X-Forwarded-For $proxy_add_x_forwarded_for;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_set_header X-Forwarded-Host $host;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # Add Headers for odoo proxy mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   proxy_next_upstream error timeout invalid_header http_500 http_502 http_503 http_504;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   # force timeouts if the backend dies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> location / {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # Redirect requests to odoo backend server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image/bmp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    application/vnd.ms-fontobject application/x-font-ttf font/opentype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    application/rss+xml text/javascript image/svg+xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    application/x-javascript text/xml application/xml application/xml+rss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_types text/plain text/css application/json application/javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_http_version 1.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_buffers 16 8k;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_comp_level 6;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_proxied any;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_vary on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip_disable "msie6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gzip on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #gzip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keepalive_timeout 600;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> send_timeout 600;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> proxy_send_timeout 720s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proxy_connect_timeout 720s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proxy_read_timeout 720s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #timeouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_max_body_size 200m;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rewrite ^(.*) https://$host$1 permanent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if ($http_x_forwarded_proto != "https") {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> server_name _;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> listen 80;</t>
+  </si>
+  <si>
+    <t>server {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server app:8072;</t>
+  </si>
+  <si>
+    <t>upstream odoochat {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server app:8069;</t>
+  </si>
+  <si>
+    <t>upstream odoo {</t>
+  </si>
+  <si>
+    <t>/opt/webcoop/web.template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web server setting   /opt/webcoop/web.template   (Current setting as of 2020/2/5 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>db_maxconn = 16</t>
+  </si>
+  <si>
+    <t>;So in case of 1G memory on postgres now, db_maxcon should be about 16</t>
+  </si>
+  <si>
+    <t>;max_connections of postgres is about 110 per 1G memory, in case of AWS</t>
+  </si>
+  <si>
+    <t>;(1+workers+max_cron_threads)* db_maxconn &lt; max_connections(of postgres)</t>
+  </si>
+  <si>
+    <t>workers = 4</t>
+  </si>
+  <si>
+    <t>;worker number = cpu number * 2 + 1 - cron thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;workers = 5</t>
+  </si>
+  <si>
+    <t>max_cron_threads = 1</t>
+  </si>
+  <si>
+    <t>limit_time_real = 1200</t>
+  </si>
+  <si>
+    <t>limit_time_cpu = 600</t>
+  </si>
+  <si>
+    <t>limit_request = 8192</t>
+  </si>
+  <si>
+    <t>limit_memory_soft = 1288490189</t>
+  </si>
+  <si>
+    <t>;1.2G</t>
+  </si>
+  <si>
+    <t>limit_memory_hard = 2147483648</t>
+  </si>
+  <si>
+    <t>;2G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;limit_memory_soft = 4026531840</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;1048576 * 640 * workers</t>
+  </si>
+  <si>
+    <t>;limit_memory_hard = 4831838208</t>
+  </si>
+  <si>
+    <t>;1048576 * 768 * workers</t>
+  </si>
+  <si>
+    <t>;proxy-mode = False</t>
+  </si>
+  <si>
+    <t>proxy-mode = True</t>
+  </si>
+  <si>
+    <t>#logrotate = True</t>
+  </si>
+  <si>
+    <t>log_level = debug</t>
+  </si>
+  <si>
+    <t>;log_level = info</t>
+  </si>
+  <si>
+    <t>logfile = /var/lib/odoo/logs/odoo.log</t>
+  </si>
+  <si>
+    <t>;Log Settings</t>
+  </si>
+  <si>
+    <t>xmlrpc = True</t>
+  </si>
+  <si>
+    <t>db-filter = ^%d.*$</t>
+  </si>
+  <si>
+    <t>db_template = template0</t>
+  </si>
+  <si>
+    <t>db_password = PgKAzKGqJL8yh4Xy</t>
+  </si>
+  <si>
+    <t>db_user = MyCoopDBUser1</t>
+  </si>
+  <si>
+    <t>db_port = 5432</t>
+  </si>
+  <si>
+    <t>db_host = mycoopdbrds.ccfshrgpl98r.ap-southeast-1.rds.amazonaws.com</t>
+  </si>
+  <si>
+    <t>admin_passwd = ibvwG3lYR0EZTsgB</t>
+  </si>
+  <si>
+    <t>addons_path = /mnt/extra-addons,/var/lib/odoo/webcoop,/usr/lib/python2.7/dist-packages/odoo/addons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#addons_path = /mnt/extra-addons,/usr/lib/python2.7/dist-packages/odoo/addons</t>
+  </si>
+  <si>
+    <t>[options]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/opt/webcoop/data/server.conf    </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Odoo server setting   /opt/webcoop/data/server.conf   (Current setting as of 2020/2/5 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    driver: bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default_net:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    command: /bin/sh -c "cat /etc/nginx/conf.d/mysite.template &gt; /etc/nginx/conf.d/default.conf &amp;&amp; nginx -g 'daemon off;'"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - default_net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - NGINX_PORT:80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    environment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 80:80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - ./web.template:/etc/nginx/conf.d/mysite.template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    restart: always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: "zer0w1ng/nginx:latest"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: "web_odoo10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  web:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - ./data:/var/lib/odoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - ODOO_RC=/var/lib/odoo/server.conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 8072:8072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 8069:8069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: "zer0w1ng/odoo10:latest"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: "webcoop"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  app:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version: "2"</t>
+  </si>
+  <si>
+    <t>/opt/webcoop/data/docker-compose.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker setting     /opt/webcoop/data/dockere-compose.pml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>usr</t>
+  </si>
+  <si>
+    <t>tmp</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>srv</t>
+  </si>
+  <si>
+    <t>sbin</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>Nginx configuration file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┗web.template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker compose file    *define docker setting for app and nginx </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webcoop log in it</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┣logo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Odoo configuration file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┃    ┗server.conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Odoo addon module folder  *every addon module is in it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┃    ┣lwebcoop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Odoo application log folder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ┃    ┣logs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ┗webcoop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>mnt</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>lib64</t>
+  </si>
+  <si>
+    <t>lib</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Setting for shared(network) folder and local folder linked to the shared folder )  *refer to [aws-install.md] in detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/fstab </t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>zer0w1ng/nginx:latest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     web(nginx)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     In case you use other Odoo version 10 image , need to install openpyxl and wkhtmltopdf module in it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Package Image of Odoo 10 (with openpyxl and wkhtmltopdf).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zer0w1ng/odoo10:latest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     app(odoo)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*refer to [aws-install.md] or , [/opt/webcoop/docker-compose.yml] in app server </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres client  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t3.medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instance type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker container is used for both server.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nginx server work as reverse proxy of app server(odoo) , and nginx get every access from client thru load balancer  and then throw the access to background app server with certain port.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In app server , two server is working . One is nginx as webserver and other is odoo as pplication server.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App server</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -90,7 +1476,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +1504,93 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -212,16 +1678,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,10 +1839,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1104,7 +2810,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId26"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1149,7 +2855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId26"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1194,7 +2900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1239,7 +2945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1482,7 +3188,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1673,7 +3379,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1847,7 +3553,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2314,7 +4020,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2406,7 +4112,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId37"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2451,7 +4157,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId37"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3045,7 +4751,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3090,7 +4796,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3135,7 +4841,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3180,7 +4886,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3225,7 +4931,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4132,6 +5838,1445 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="64349779"/>
+          <a:ext cx="4744570" cy="7087721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_AUTH=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_CIPHER=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_CLIENT_TO_CLIENT=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OVPN_CN=vpn.philippines-webcoop.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_COMP_LZO=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DEFROUTE=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#declare -x OVPN_DEFROUTE=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DEVICE=tun</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DEVICEN=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DISABLE_PUSH_BLOCK_DNS=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DNS=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_DNS_SERVERS=([0]="8.8.8.8" [1]="8.8.4.4")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_ENV=/etc/openvpn/ovpn_env.sh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_EXTRA_CLIENT_CONFIG=()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_EXTRA_SERVER_CONFIG=()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_FRAGMENT=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_KEEPALIVE='10 60'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_MTU=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_NAT=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_PORT=1194</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_PROTO=udp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_PUSH=()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#declare -x OVPN_ROUTES=([0]="192.168.254.0/24")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_ROUTES=([0]="192.168.254.0/24" [1]="172.16.0.0/12")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#declare -x OVPN_SERVER=192.168.255.0/24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_SERVER=10.0.0.0/16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_SERVER_URL=udp://vpn.philippines-webcoop.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>declare -x OVPN_TLS_CIPHER=</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="65358309"/>
+          <a:ext cx="1091453" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5282452" y="16464243"/>
+          <a:ext cx="2888876" cy="271742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Path</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>  for o</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>doo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> server setting  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in docker.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4116481" y="16598714"/>
+          <a:ext cx="1165971" cy="182095"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4551829" y="16974110"/>
+          <a:ext cx="3608293" cy="509868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Folder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> [/data] is linked to [/var/lib/odoo/] in docker.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Substantially </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Odoo server setting file is  [/data/server.conf])</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2922494" y="17229044"/>
+          <a:ext cx="1629335" cy="16810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右中かっこ 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8352864" y="14808574"/>
+          <a:ext cx="156883" cy="3218889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8689041" y="16214912"/>
+          <a:ext cx="1259542" cy="406214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> for odoo</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右中かっこ 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8386482" y="18198352"/>
+          <a:ext cx="156883" cy="3218889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470645</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8700245" y="19649513"/>
+          <a:ext cx="4238067" cy="1030942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> for nginx.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(In order to access by https , need to set web server as proxy )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>http://www.odoo.com/documentation/master/setup/deploy.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="線吹き出し 1 (枠付き) 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8442510" y="23857324"/>
+          <a:ext cx="6598024" cy="4941794"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36782"/>
+            <a:gd name="adj2" fmla="val -334"/>
+            <a:gd name="adj3" fmla="val 52309"/>
+            <a:gd name="adj4" fmla="val -14962"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>refer to below url link , regarding odoo server setting in detail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.odoo.com/documentation/10.0/setup/deploy.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.[workers]  :  [server cpu * 2 + 1] is logical maximum limit of [worker] , Need to keep one worker for Cron job , so need to set [limit of worker minus 1] for woker</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.[limit-memory-soft] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Maximum allowed virtual memory per worker, when reached the worker be reset after the current request</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.[limit-memory-hard]  :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hard limit on virtual memory, any worker exceeding the limit will be immediately killed without waiting for the end of the current request processing.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Consider memory limit by following step , according to the link</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	We consider 20% of the requests are heavy requests, while 80% are simpler ones.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	A heavy worker, when all computed field are well designed, SQL requests are well designed, ... is estimated to consume around 1Go of RAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	A lighter worker, in the same scenario, is estimated to consume around 150MB of RAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	Needed RAM = #worker * ( (light_worker_ratio * light_worker_ram_estimation) + (heavy_worker_ratio * heavy_worker_ram_estimation) )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>* In </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>our case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,   worker is four , so necessary memory is   [4 * (0.8 * 150 + 0.2 * 1024) = 1300 ].</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>In actual setting , 1.2G is set as  [limit_memory_soft] , and 2G is set as [limit_memory_hard]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Why [limit_memory_hard] is 2G is , because error occur when pdf creation if below 2G.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>If host server's memory is less than this odoo's [limit_memory_hard] , </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       there is possibility that docker uses too much memory and host server hung up. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       (knowledge from experience)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>So we use [t3.medium] instance type of AWS as host server(The memory is 4G).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="線吹き出し 1 (枠付き) 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7655859" y="35956877"/>
+          <a:ext cx="4688541" cy="621925"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36782"/>
+            <a:gd name="adj2" fmla="val -334"/>
+            <a:gd name="adj3" fmla="val 52309"/>
+            <a:gd name="adj4" fmla="val -14962"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(In order to access by https , need to set web server as proxy )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>http://www.odoo.com/documentation/master/setup/deploy.html</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3496235" y="110024955"/>
+          <a:ext cx="2281518" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>This needs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> to be changed for new user</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2191871" y="110490000"/>
+          <a:ext cx="1427629" cy="112058"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4397,8 +7542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5603,4 +8748,6178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N475"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H459" sqref="H459"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="43"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="43"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="43"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="43"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="43"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="43"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="43"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="43"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="43"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="40"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="40"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="40"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="43"/>
+      <c r="C32" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="40"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="43"/>
+      <c r="C33" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="43"/>
+      <c r="C34" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="40"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="43"/>
+      <c r="C35" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="40"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36" s="43"/>
+      <c r="C36" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="40"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="43"/>
+      <c r="C37" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B38" s="43"/>
+      <c r="C38" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="40"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" s="43"/>
+      <c r="C39" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" s="43"/>
+      <c r="C40" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="40"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="43"/>
+      <c r="C41" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="40"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="43"/>
+      <c r="C42" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="40"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="43"/>
+      <c r="C43" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="40"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="43"/>
+      <c r="C44" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="40"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B45" s="43"/>
+      <c r="C45" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="40"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B46" s="43"/>
+      <c r="C46" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="40"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B47" s="43"/>
+      <c r="C47" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="40"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B48" s="43"/>
+      <c r="C48" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="40"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B49" s="43"/>
+      <c r="C49" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B50" s="43"/>
+      <c r="C50" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B51" s="43"/>
+      <c r="C51" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B52" s="43"/>
+      <c r="C52" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B53" s="43"/>
+      <c r="C53" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B54" s="43"/>
+      <c r="C54" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B55" s="43"/>
+      <c r="C55" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B56" s="43"/>
+      <c r="C56" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="40"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B57" s="43"/>
+      <c r="C57" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="40"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B58" s="43"/>
+      <c r="C58" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="40"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B59" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B60" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="19"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B61" s="21"/>
+      <c r="C61" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="19"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B63" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B95" s="21"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="19"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B96" s="21"/>
+      <c r="C96" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="19"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B97" s="21"/>
+      <c r="C97" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="19"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B98" s="39"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="19"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B145" s="21"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="19"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B146" s="21"/>
+      <c r="C146" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="19"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B147" s="39"/>
+      <c r="C147" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="19"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="45"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="45"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B180" s="21"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="19"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="19"/>
+      <c r="M200" s="19"/>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="19"/>
+      <c r="M201" s="19"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="19"/>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B204" s="21"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="19"/>
+      <c r="M206" s="19"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="19"/>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="19"/>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="19"/>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="19"/>
+      <c r="M215" s="19"/>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="19"/>
+      <c r="M216" s="19"/>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B217" s="21"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="16"/>
+      <c r="M217" s="19"/>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B218" s="21"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="16"/>
+      <c r="M218" s="19"/>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B219" s="18"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+      <c r="M219" s="16"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B220" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="34"/>
+      <c r="J220" s="34"/>
+      <c r="K220" s="34"/>
+      <c r="L220" s="34"/>
+      <c r="M220" s="33"/>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B221" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="19"/>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B222" s="21"/>
+      <c r="C222" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="19"/>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B223" s="21"/>
+      <c r="C223" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="19"/>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B224" s="21"/>
+      <c r="C224" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="19"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B225" s="21"/>
+      <c r="C225" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="19"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B226" s="18"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="17"/>
+      <c r="M226" s="16"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A229" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B232" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B233" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C234" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B235" s="14"/>
+      <c r="C235" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B237" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B238" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
+      <c r="I238" s="34"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
+      <c r="L238" s="34"/>
+      <c r="M238" s="33"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B239" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C239" s="40"/>
+      <c r="D239" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E239" s="41"/>
+      <c r="F239" s="41"/>
+      <c r="G239" s="41"/>
+      <c r="H239" s="41"/>
+      <c r="I239" s="41"/>
+      <c r="J239" s="41"/>
+      <c r="K239" s="41"/>
+      <c r="L239" s="41"/>
+      <c r="M239" s="40"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B240" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" s="40"/>
+      <c r="D240" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E240" s="41"/>
+      <c r="F240" s="41"/>
+      <c r="G240" s="41"/>
+      <c r="H240" s="41"/>
+      <c r="I240" s="41"/>
+      <c r="J240" s="41"/>
+      <c r="K240" s="41"/>
+      <c r="L240" s="41"/>
+      <c r="M240" s="40"/>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B241" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C241" s="40"/>
+      <c r="D241" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E241" s="41"/>
+      <c r="F241" s="41"/>
+      <c r="G241" s="41"/>
+      <c r="H241" s="41"/>
+      <c r="I241" s="41"/>
+      <c r="J241" s="41"/>
+      <c r="K241" s="41"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="40"/>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B242" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C242" s="34"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
+      <c r="I242" s="34"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="34"/>
+      <c r="L242" s="34"/>
+      <c r="M242" s="33"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B243" s="43"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="41"/>
+      <c r="E243" s="41"/>
+      <c r="F243" s="41"/>
+      <c r="G243" s="41"/>
+      <c r="H243" s="41"/>
+      <c r="I243" s="41"/>
+      <c r="J243" s="41"/>
+      <c r="K243" s="41"/>
+      <c r="L243" s="41"/>
+      <c r="M243" s="40"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B244" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C244" s="40"/>
+      <c r="D244" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E244" s="41"/>
+      <c r="F244" s="41"/>
+      <c r="G244" s="41"/>
+      <c r="H244" s="41"/>
+      <c r="I244" s="41"/>
+      <c r="J244" s="41"/>
+      <c r="K244" s="41"/>
+      <c r="L244" s="41"/>
+      <c r="M244" s="40"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B245" s="43"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E245" s="41"/>
+      <c r="F245" s="41"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="41"/>
+      <c r="I245" s="41"/>
+      <c r="J245" s="41"/>
+      <c r="K245" s="41"/>
+      <c r="L245" s="41"/>
+      <c r="M245" s="40"/>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B246" s="43"/>
+      <c r="C246" s="40"/>
+      <c r="D246" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E246" s="41"/>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
+      <c r="H246" s="41"/>
+      <c r="I246" s="41"/>
+      <c r="J246" s="41"/>
+      <c r="K246" s="41"/>
+      <c r="L246" s="41"/>
+      <c r="M246" s="40"/>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B247" s="43"/>
+      <c r="C247" s="40"/>
+      <c r="D247" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E247" s="41"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="41"/>
+      <c r="I247" s="41"/>
+      <c r="J247" s="41"/>
+      <c r="K247" s="41"/>
+      <c r="L247" s="41"/>
+      <c r="M247" s="40"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B248" s="43"/>
+      <c r="C248" s="40"/>
+      <c r="D248" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E248" s="41"/>
+      <c r="F248" s="41"/>
+      <c r="G248" s="41"/>
+      <c r="H248" s="41"/>
+      <c r="I248" s="41"/>
+      <c r="J248" s="41"/>
+      <c r="K248" s="41"/>
+      <c r="L248" s="41"/>
+      <c r="M248" s="40"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B249" s="43"/>
+      <c r="C249" s="40"/>
+      <c r="D249" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E249" s="41"/>
+      <c r="F249" s="41"/>
+      <c r="G249" s="41"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="41"/>
+      <c r="J249" s="41"/>
+      <c r="K249" s="41"/>
+      <c r="L249" s="41"/>
+      <c r="M249" s="40"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B250" s="43"/>
+      <c r="C250" s="40"/>
+      <c r="D250" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E250" s="41"/>
+      <c r="F250" s="41"/>
+      <c r="G250" s="41"/>
+      <c r="H250" s="41"/>
+      <c r="I250" s="41"/>
+      <c r="J250" s="41"/>
+      <c r="K250" s="41"/>
+      <c r="L250" s="41"/>
+      <c r="M250" s="40"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B251" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C251" s="40"/>
+      <c r="D251" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+      <c r="G251" s="41"/>
+      <c r="H251" s="41"/>
+      <c r="I251" s="41"/>
+      <c r="J251" s="41"/>
+      <c r="K251" s="41"/>
+      <c r="L251" s="41"/>
+      <c r="M251" s="40"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B252" s="43"/>
+      <c r="C252" s="40"/>
+      <c r="D252" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E252" s="41"/>
+      <c r="F252" s="41"/>
+      <c r="G252" s="41"/>
+      <c r="H252" s="41"/>
+      <c r="I252" s="41"/>
+      <c r="J252" s="41"/>
+      <c r="K252" s="41"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="40"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B253" s="43"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="41"/>
+      <c r="I253" s="41"/>
+      <c r="J253" s="41"/>
+      <c r="K253" s="41"/>
+      <c r="L253" s="41"/>
+      <c r="M253" s="40"/>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B254" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" s="40"/>
+      <c r="D254" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E254" s="41"/>
+      <c r="F254" s="41"/>
+      <c r="G254" s="41"/>
+      <c r="H254" s="41"/>
+      <c r="I254" s="41"/>
+      <c r="J254" s="41"/>
+      <c r="K254" s="41"/>
+      <c r="L254" s="41"/>
+      <c r="M254" s="40"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B255" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C255" s="40"/>
+      <c r="D255" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E255" s="41"/>
+      <c r="F255" s="41"/>
+      <c r="G255" s="41"/>
+      <c r="H255" s="41"/>
+      <c r="I255" s="41"/>
+      <c r="J255" s="41"/>
+      <c r="K255" s="41"/>
+      <c r="L255" s="41"/>
+      <c r="M255" s="40"/>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B256" s="43"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="41"/>
+      <c r="I256" s="41"/>
+      <c r="J256" s="41"/>
+      <c r="K256" s="41"/>
+      <c r="L256" s="41"/>
+      <c r="M256" s="40"/>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B257" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
+      <c r="I257" s="34"/>
+      <c r="J257" s="34"/>
+      <c r="K257" s="34"/>
+      <c r="L257" s="34"/>
+      <c r="M257" s="33"/>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B258" s="39"/>
+      <c r="C258" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="19"/>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B259" s="39"/>
+      <c r="C259" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="19"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B260" s="39"/>
+      <c r="C260" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="19"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B261" s="39"/>
+      <c r="C261" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="19"/>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B262" s="39"/>
+      <c r="C262" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="19"/>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B263" s="39"/>
+      <c r="C263" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="19"/>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B264" s="39"/>
+      <c r="C264" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="19"/>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B265" s="39"/>
+      <c r="C265" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="19"/>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B266" s="21"/>
+      <c r="C266" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="19"/>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B267" s="21"/>
+      <c r="C267" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G267" s="29"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="19"/>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B268" s="21"/>
+      <c r="C268" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="19"/>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B269" s="21"/>
+      <c r="C269" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G269" s="37"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+      <c r="M269" s="19"/>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B270" s="21"/>
+      <c r="C270" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="37"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="19"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B271" s="21"/>
+      <c r="C271" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="37"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="19"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B272" s="21"/>
+      <c r="C272" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="37"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="19"/>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B273" s="21"/>
+      <c r="C273" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="37"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="19"/>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B274" s="21"/>
+      <c r="C274" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G274" s="37"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="19"/>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B275" s="21"/>
+      <c r="C275" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G275" s="37"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="19"/>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B276" s="21"/>
+      <c r="C276" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="37"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="19"/>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B277" s="21"/>
+      <c r="C277" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="19"/>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B278" s="21"/>
+      <c r="C278" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="29"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="19"/>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B279" s="21"/>
+      <c r="C279" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="28"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="19"/>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B280" s="21"/>
+      <c r="C280" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="19"/>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B281" s="21"/>
+      <c r="C281" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="19"/>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B282" s="21"/>
+      <c r="C282" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+      <c r="M282" s="19"/>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B283" s="21"/>
+      <c r="C283" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="19"/>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B284" s="21"/>
+      <c r="C284" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="19"/>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B285" s="21"/>
+      <c r="C285" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="19"/>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B286" s="18"/>
+      <c r="C286" s="36"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+      <c r="M286" s="16"/>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B287" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C287" s="34"/>
+      <c r="D287" s="34"/>
+      <c r="E287" s="34"/>
+      <c r="F287" s="34"/>
+      <c r="G287" s="34"/>
+      <c r="H287" s="34"/>
+      <c r="I287" s="34"/>
+      <c r="J287" s="34"/>
+      <c r="K287" s="34"/>
+      <c r="L287" s="34"/>
+      <c r="M287" s="33"/>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B288" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C288" s="32"/>
+      <c r="D288" s="32"/>
+      <c r="E288" s="32"/>
+      <c r="F288" s="32"/>
+      <c r="G288" s="32"/>
+      <c r="H288" s="32"/>
+      <c r="I288" s="32"/>
+      <c r="J288" s="32"/>
+      <c r="K288" s="32"/>
+      <c r="L288" s="32"/>
+      <c r="M288" s="22"/>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B289" s="21"/>
+      <c r="C289" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D289" s="32"/>
+      <c r="E289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="32"/>
+      <c r="I289" s="32"/>
+      <c r="J289" s="32"/>
+      <c r="K289" s="32"/>
+      <c r="L289" s="22"/>
+      <c r="M289" s="19"/>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B290" s="21"/>
+      <c r="C290" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="19"/>
+      <c r="M290" s="19"/>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B291" s="21"/>
+      <c r="C291" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="19"/>
+      <c r="M291" s="19"/>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B292" s="21"/>
+      <c r="C292" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="19"/>
+      <c r="M292" s="19"/>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B293" s="21"/>
+      <c r="C293" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="19"/>
+      <c r="M293" s="19"/>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B294" s="21"/>
+      <c r="C294" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="19"/>
+      <c r="M294" s="19"/>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B295" s="21"/>
+      <c r="C295" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="19"/>
+      <c r="M295" s="19"/>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B296" s="21"/>
+      <c r="C296" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="19"/>
+      <c r="M296" s="19"/>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B297" s="21"/>
+      <c r="C297" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="19"/>
+      <c r="M297" s="19"/>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B298" s="21"/>
+      <c r="C298" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="19"/>
+      <c r="M298" s="19"/>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B299" s="21"/>
+      <c r="C299" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="19"/>
+      <c r="M299" s="19"/>
+    </row>
+    <row r="300" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B300" s="21"/>
+      <c r="C300" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="19"/>
+      <c r="M300" s="19"/>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B301" s="21"/>
+      <c r="C301" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="19"/>
+      <c r="M301" s="19"/>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B302" s="21"/>
+      <c r="C302" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="19"/>
+      <c r="M302" s="19"/>
+    </row>
+    <row r="303" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B303" s="21"/>
+      <c r="C303" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="19"/>
+      <c r="M303" s="19"/>
+    </row>
+    <row r="304" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B304" s="21"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="19"/>
+      <c r="M304" s="19"/>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B305" s="21"/>
+      <c r="C305" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="19"/>
+      <c r="M305" s="19"/>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B306" s="21"/>
+      <c r="C306" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="19"/>
+      <c r="M306" s="19"/>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B307" s="21"/>
+      <c r="C307" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="19"/>
+      <c r="M307" s="19"/>
+    </row>
+    <row r="308" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B308" s="21"/>
+      <c r="C308" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="19"/>
+      <c r="M308" s="19"/>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B309" s="21"/>
+      <c r="C309" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="19"/>
+      <c r="M309" s="19"/>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B310" s="21"/>
+      <c r="C310" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="19"/>
+      <c r="M310" s="19"/>
+    </row>
+    <row r="311" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B311" s="31"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="17"/>
+      <c r="E311" s="17"/>
+      <c r="F311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="17"/>
+      <c r="I311" s="17"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="17"/>
+      <c r="L311" s="16"/>
+      <c r="M311" s="16"/>
+    </row>
+    <row r="312" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B312" s="30"/>
+      <c r="C312" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D312" s="24"/>
+      <c r="E312" s="24"/>
+      <c r="F312" s="24"/>
+      <c r="G312" s="24"/>
+      <c r="H312" s="24"/>
+      <c r="I312" s="24"/>
+      <c r="J312" s="24"/>
+      <c r="K312" s="24"/>
+      <c r="L312" s="23"/>
+      <c r="M312" s="22"/>
+    </row>
+    <row r="313" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B313" s="21"/>
+      <c r="C313" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="19"/>
+      <c r="M313" s="19"/>
+    </row>
+    <row r="314" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B314" s="21"/>
+      <c r="C314" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="29"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="19"/>
+      <c r="M314" s="19"/>
+    </row>
+    <row r="315" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B315" s="21"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="19"/>
+      <c r="M315" s="19"/>
+    </row>
+    <row r="316" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B316" s="21"/>
+      <c r="C316" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="29"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5"/>
+      <c r="L316" s="19"/>
+      <c r="M316" s="19"/>
+    </row>
+    <row r="317" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B317" s="21"/>
+      <c r="C317" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="29"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="19"/>
+      <c r="M317" s="19"/>
+    </row>
+    <row r="318" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B318" s="21"/>
+      <c r="C318" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="29"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="19"/>
+      <c r="M318" s="19"/>
+    </row>
+    <row r="319" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B319" s="21"/>
+      <c r="C319" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="29"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="19"/>
+      <c r="M319" s="19"/>
+    </row>
+    <row r="320" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B320" s="21"/>
+      <c r="C320" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="29"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="19"/>
+      <c r="M320" s="19"/>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B321" s="21"/>
+      <c r="C321" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="29"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="19"/>
+      <c r="M321" s="19"/>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B322" s="21"/>
+      <c r="C322" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="29"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="19"/>
+      <c r="M322" s="19"/>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B323" s="21"/>
+      <c r="C323" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="19"/>
+      <c r="M323" s="19"/>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B324" s="21"/>
+      <c r="C324" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="29"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="19"/>
+      <c r="M324" s="19"/>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B325" s="21"/>
+      <c r="C325" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="28"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="19"/>
+      <c r="M325" s="19"/>
+    </row>
+    <row r="326" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B326" s="21"/>
+      <c r="C326" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="19"/>
+      <c r="M326" s="19"/>
+    </row>
+    <row r="327" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B327" s="21"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="19"/>
+      <c r="M327" s="19"/>
+    </row>
+    <row r="328" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B328" s="21"/>
+      <c r="C328" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="19"/>
+      <c r="M328" s="19"/>
+    </row>
+    <row r="329" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B329" s="21"/>
+      <c r="C329" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="19"/>
+      <c r="M329" s="19"/>
+    </row>
+    <row r="330" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B330" s="21"/>
+      <c r="C330" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="19"/>
+      <c r="M330" s="19"/>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B331" s="21"/>
+      <c r="C331" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="19"/>
+      <c r="M331" s="19"/>
+    </row>
+    <row r="332" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B332" s="27"/>
+      <c r="C332" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="19"/>
+      <c r="M332" s="19"/>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B333" s="27"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="19"/>
+      <c r="M333" s="19"/>
+    </row>
+    <row r="334" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B334" s="21"/>
+      <c r="C334" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="19"/>
+      <c r="M334" s="19"/>
+    </row>
+    <row r="335" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B335" s="21"/>
+      <c r="C335" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="19"/>
+      <c r="M335" s="19"/>
+    </row>
+    <row r="336" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="19"/>
+      <c r="M336" s="19"/>
+    </row>
+    <row r="337" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B337" s="21"/>
+      <c r="C337" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+      <c r="K337" s="5"/>
+      <c r="L337" s="19"/>
+      <c r="M337" s="19"/>
+    </row>
+    <row r="338" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B338" s="21"/>
+      <c r="C338" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J338" s="5"/>
+      <c r="K338" s="5"/>
+      <c r="L338" s="19"/>
+      <c r="M338" s="19"/>
+    </row>
+    <row r="339" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B339" s="21"/>
+      <c r="C339" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="5"/>
+      <c r="L339" s="19"/>
+      <c r="M339" s="19"/>
+    </row>
+    <row r="340" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B340" s="21"/>
+      <c r="C340" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5"/>
+      <c r="K340" s="5"/>
+      <c r="L340" s="19"/>
+      <c r="M340" s="19"/>
+    </row>
+    <row r="341" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B341" s="21"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+      <c r="K341" s="5"/>
+      <c r="L341" s="19"/>
+      <c r="M341" s="19"/>
+    </row>
+    <row r="342" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B342" s="21"/>
+      <c r="C342" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5"/>
+      <c r="L342" s="19"/>
+      <c r="M342" s="19"/>
+    </row>
+    <row r="343" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B343" s="21"/>
+      <c r="C343" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="19"/>
+      <c r="M343" s="19"/>
+    </row>
+    <row r="344" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B344" s="21"/>
+      <c r="C344" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+      <c r="K344" s="5"/>
+      <c r="L344" s="19"/>
+      <c r="M344" s="19"/>
+    </row>
+    <row r="345" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B345" s="21"/>
+      <c r="C345" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="19"/>
+      <c r="M345" s="19"/>
+    </row>
+    <row r="346" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B346" s="21"/>
+      <c r="C346" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="19"/>
+      <c r="M346" s="19"/>
+    </row>
+    <row r="347" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B347" s="21"/>
+      <c r="C347" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="19"/>
+      <c r="M347" s="19"/>
+    </row>
+    <row r="348" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B348" s="18"/>
+      <c r="C348" s="18"/>
+      <c r="D348" s="17"/>
+      <c r="E348" s="17"/>
+      <c r="F348" s="17"/>
+      <c r="G348" s="17"/>
+      <c r="H348" s="17"/>
+      <c r="I348" s="17"/>
+      <c r="J348" s="17"/>
+      <c r="K348" s="17"/>
+      <c r="L348" s="16"/>
+      <c r="M348" s="16"/>
+    </row>
+    <row r="349" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B349" s="26"/>
+      <c r="C349" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D349" s="24"/>
+      <c r="E349" s="24"/>
+      <c r="F349" s="24"/>
+      <c r="G349" s="24"/>
+      <c r="H349" s="24"/>
+      <c r="I349" s="24"/>
+      <c r="J349" s="24"/>
+      <c r="K349" s="24"/>
+      <c r="L349" s="23"/>
+      <c r="M349" s="22"/>
+    </row>
+    <row r="350" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B350" s="21"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="19"/>
+      <c r="M350" s="19"/>
+    </row>
+    <row r="351" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B351" s="21"/>
+      <c r="C351" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="19"/>
+      <c r="M351" s="19"/>
+    </row>
+    <row r="352" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B352" s="21"/>
+      <c r="C352" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5"/>
+      <c r="K352" s="5"/>
+      <c r="L352" s="19"/>
+      <c r="M352" s="19"/>
+    </row>
+    <row r="353" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B353" s="21"/>
+      <c r="C353" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5"/>
+      <c r="K353" s="5"/>
+      <c r="L353" s="19"/>
+      <c r="M353" s="19"/>
+    </row>
+    <row r="354" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B354" s="21"/>
+      <c r="C354" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5"/>
+      <c r="K354" s="5"/>
+      <c r="L354" s="19"/>
+      <c r="M354" s="19"/>
+    </row>
+    <row r="355" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B355" s="21"/>
+      <c r="C355" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="19"/>
+      <c r="M355" s="19"/>
+    </row>
+    <row r="356" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B356" s="21"/>
+      <c r="C356" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5"/>
+      <c r="K356" s="5"/>
+      <c r="L356" s="19"/>
+      <c r="M356" s="19"/>
+    </row>
+    <row r="357" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B357" s="21"/>
+      <c r="C357" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5"/>
+      <c r="K357" s="5"/>
+      <c r="L357" s="19"/>
+      <c r="M357" s="19"/>
+    </row>
+    <row r="358" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B358" s="21"/>
+      <c r="C358" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="19"/>
+      <c r="M358" s="19"/>
+    </row>
+    <row r="359" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B359" s="21"/>
+      <c r="C359" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="19"/>
+      <c r="M359" s="19"/>
+    </row>
+    <row r="360" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B360" s="21"/>
+      <c r="C360" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="19"/>
+      <c r="M360" s="19"/>
+    </row>
+    <row r="361" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B361" s="21"/>
+      <c r="C361" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="19"/>
+      <c r="M361" s="19"/>
+    </row>
+    <row r="362" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B362" s="21"/>
+      <c r="C362" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="19"/>
+      <c r="M362" s="19"/>
+    </row>
+    <row r="363" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B363" s="21"/>
+      <c r="C363" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="19"/>
+      <c r="M363" s="19"/>
+    </row>
+    <row r="364" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B364" s="21"/>
+      <c r="C364" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="19"/>
+      <c r="M364" s="19"/>
+    </row>
+    <row r="365" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B365" s="21"/>
+      <c r="C365" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="19"/>
+      <c r="M365" s="19"/>
+    </row>
+    <row r="366" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B366" s="21"/>
+      <c r="C366" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="19"/>
+      <c r="M366" s="19"/>
+    </row>
+    <row r="367" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B367" s="21"/>
+      <c r="C367" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="5"/>
+      <c r="L367" s="19"/>
+      <c r="M367" s="19"/>
+    </row>
+    <row r="368" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B368" s="21"/>
+      <c r="C368" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
+      <c r="L368" s="19"/>
+      <c r="M368" s="19"/>
+    </row>
+    <row r="369" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B369" s="21"/>
+      <c r="C369" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="19"/>
+      <c r="M369" s="19"/>
+    </row>
+    <row r="370" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B370" s="21"/>
+      <c r="C370" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="19"/>
+      <c r="M370" s="19"/>
+    </row>
+    <row r="371" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B371" s="21"/>
+      <c r="C371" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
+      <c r="L371" s="19"/>
+      <c r="M371" s="19"/>
+    </row>
+    <row r="372" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B372" s="21"/>
+      <c r="C372" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
+      <c r="L372" s="19"/>
+      <c r="M372" s="19"/>
+    </row>
+    <row r="373" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B373" s="21"/>
+      <c r="C373" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="19"/>
+      <c r="M373" s="19"/>
+    </row>
+    <row r="374" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B374" s="21"/>
+      <c r="C374" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="19"/>
+      <c r="M374" s="19"/>
+    </row>
+    <row r="375" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B375" s="21"/>
+      <c r="C375" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="19"/>
+      <c r="M375" s="19"/>
+    </row>
+    <row r="376" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B376" s="21"/>
+      <c r="C376" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="19"/>
+      <c r="M376" s="19"/>
+    </row>
+    <row r="377" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B377" s="21"/>
+      <c r="C377" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="19"/>
+      <c r="M377" s="19"/>
+    </row>
+    <row r="378" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B378" s="21"/>
+      <c r="C378" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="19"/>
+      <c r="M378" s="19"/>
+    </row>
+    <row r="379" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="17"/>
+      <c r="E379" s="17"/>
+      <c r="F379" s="17"/>
+      <c r="G379" s="17"/>
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+      <c r="J379" s="17"/>
+      <c r="K379" s="17"/>
+      <c r="L379" s="16"/>
+      <c r="M379" s="16"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A386" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B388" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B391" s="14"/>
+      <c r="C391" t="s">
+        <v>79</v>
+      </c>
+      <c r="F391" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C392" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F392" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B396" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C398" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C399" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C400" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C401" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C402" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C404" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C405" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C406" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C407" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C409" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C410" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C411" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C413" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C414" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C416" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C418" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C419" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C421" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C423" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C424" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C425" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C426" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C427" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C429" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C430" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C432" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C433" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C434" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C435" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C436" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C437" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C438" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C439" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C442" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C443" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C445" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C446" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C447" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C448" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C449" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C450" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C451" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C452" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C453" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C454" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C455" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C458" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C460" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C462" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C464" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C465" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C466" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C467" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C469" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C470" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C472" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C473" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C474" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C475" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C223" r:id="rId1"/>
+    <hyperlink ref="C234" r:id="rId2"/>
+    <hyperlink ref="I269" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>